--- a/Automation-Template/qa-automation-template-master/data/locatorsRepository.xlsx
+++ b/Automation-Template/qa-automation-template-master/data/locatorsRepository.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDUCATION\Courses\Projects\OrangeHRM\qa-automation-template-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDUCATION\SLIIT\4 Year\Y4 S2\SQA\TrashMate-Automation\Automation-Template\qa-automation-template-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF1DB3E-060C-4054-BB66-FCD0C352ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB570C3-CCFA-4FF3-8822-C93C133DFB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EC30635-A69F-42C4-9C00-4643C4E984B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EC30635-A69F-42C4-9C00-4643C4E984B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>ElementID</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Login_User_Name_Field</t>
-  </si>
-  <si>
     <t>By.xpath</t>
   </si>
   <si>
@@ -59,76 +56,25 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Login_Password_Field</t>
-  </si>
-  <si>
-    <t>Admin_Tab</t>
-  </si>
-  <si>
-    <t>Add_Button</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='Add']</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[1]/div[2]/div[2]/div/div/form/div[1]/div/div[1]/div/div[2]/div/div/div[1]</t>
-  </si>
-  <si>
-    <t>UserRole_Drop_Down</t>
-  </si>
-  <si>
-    <t>Admin-Role</t>
-  </si>
-  <si>
-    <t>//*[text()='Admin']</t>
-  </si>
-  <si>
-    <t>//input[@name='username']</t>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-  </si>
-  <si>
-    <t>//button[@type='submit']</t>
-  </si>
-  <si>
-    <t>//span[text()='Admin']</t>
-  </si>
-  <si>
-    <t>Employee_Name</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Type for hints...']</t>
-  </si>
-  <si>
-    <t>Status_Dro_Down</t>
-  </si>
-  <si>
-    <t>//div[contains(text(),'-- Select --')]</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>//input[@class='oxd-input oxd-input--active']</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>(//input[@type='password'])[1]</t>
-  </si>
-  <si>
-    <t>Confirm_Password</t>
-  </si>
-  <si>
-    <t>(//input[@type='password'])[2]</t>
-  </si>
-  <si>
-    <t>Save_Button</t>
-  </si>
-  <si>
-    <t>//button[@type='submit'][@class='oxd-button oxd-button--medium oxd-button--secondary orangehrm-left-space']</t>
+    <t>//a[normalize-space()='Login']</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>//input[@id='email']</t>
+  </si>
+  <si>
+    <t>Login_Submit</t>
+  </si>
+  <si>
+    <t>//*[@type="submit"]</t>
+  </si>
+  <si>
+    <t>//input[@id='password']</t>
   </si>
 </sst>
 </file>
@@ -247,12 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,10 +212,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C97E25B-5CF4-4671-ADCD-82227B0F14A0}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -625,158 +574,127 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation-Template/qa-automation-template-master/data/locatorsRepository.xlsx
+++ b/Automation-Template/qa-automation-template-master/data/locatorsRepository.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDUCATION\SLIIT\4 Year\Y4 S2\SQA\TrashMate-Automation\Automation-Template\qa-automation-template-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Y4\SQA\Assignment\TrashMate-Automation\Automation-Template\qa-automation-template-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB570C3-CCFA-4FF3-8822-C93C133DFB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55811265-35FB-4F1A-B1B9-10C550800FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EC30635-A69F-42C4-9C00-4643C4E984B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EC30635-A69F-42C4-9C00-4643C4E984B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>ElementID</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>//input[@id='password']</t>
+  </si>
+  <si>
+    <t>Assigned_User_Button</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='Assigned Users']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Collect Garbage']</t>
+  </si>
+  <si>
+    <t>Collect_Garbage_Button</t>
+  </si>
+  <si>
+    <t>//select[@class='form-select']</t>
+  </si>
+  <si>
+    <t>Waste_Type_Selector</t>
   </si>
 </sst>
 </file>
@@ -549,17 +567,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C97E25B-5CF4-4671-ADCD-82227B0F14A0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="120.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -690,6 +708,39 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
